--- a/municipalRecycling_Data_Dictionary.xlsx
+++ b/municipalRecycling_Data_Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee6b5e37b1485b62/UW MLIS/LIS 545/ASSIGNMENTS/Curation Protocol/recyclingProgram/municipal_recycling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="208" documentId="8_{F31FE84C-E0A5-423E-B344-F65A110A6D6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0F023773-A531-404B-ADB0-B54AA7429276}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="8_{F31FE84C-E0A5-423E-B344-F65A110A6D6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{809FE543-35A9-431C-8A41-1ACC0D9C382F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17664" xr2:uid="{9DC2398A-BE11-4B53-AFAA-D3C0C5B4BF52}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DC2398A-BE11-4B53-AFAA-D3C0C5B4BF52}"/>
   </bookViews>
   <sheets>
     <sheet name="data_Dictionary" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
-    <t>Recycling Program Curation Protocol Report: Data Dictionary</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>URL: GItHub link here</t>
-  </si>
-  <si>
     <t>city_Program</t>
   </si>
   <si>
@@ -165,9 +159,6 @@
     <t>U.S. city names</t>
   </si>
   <si>
-    <t>City name</t>
-  </si>
-  <si>
     <t>Paper Tonnage</t>
   </si>
   <si>
@@ -192,9 +183,6 @@
     <t>Numbers between 0-1 (percentage)</t>
   </si>
   <si>
-    <t>Year that data recycle data was taken from.</t>
-  </si>
-  <si>
     <t>Numbers greater than 0 (miles squared)</t>
   </si>
   <si>
@@ -226,6 +214,18 @@
   </si>
   <si>
     <t>Total percentage of residential (includes single-family and multi-family) recycled materials that were recovered or diverted from a landfill. The numbers for Seattle were pulled direclty from report; Portland and Los Angeles had to be calculated by hand from available data.</t>
+  </si>
+  <si>
+    <t>Municipal Recycling Program Comparison: Data Dictionary</t>
+  </si>
+  <si>
+    <t>URL: https://github.com/ewhinihan/municipal_recycling</t>
+  </si>
+  <si>
+    <t>Year that recycle data was taken from.</t>
+  </si>
+  <si>
+    <t>Name of city/municipality for relevant recycle data.</t>
   </si>
 </sst>
 </file>
@@ -630,14 +630,14 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="49.44140625" customWidth="1"/>
@@ -647,376 +647,376 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/municipalRecycling_Data_Dictionary.xlsx
+++ b/municipalRecycling_Data_Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee6b5e37b1485b62/UW MLIS/LIS 545/ASSIGNMENTS/Curation Protocol/recyclingProgram/municipal_recycling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="8_{F31FE84C-E0A5-423E-B344-F65A110A6D6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{809FE543-35A9-431C-8A41-1ACC0D9C382F}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="8_{F31FE84C-E0A5-423E-B344-F65A110A6D6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BEFDE93F-5B61-4329-A1A7-B392EB442652}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DC2398A-BE11-4B53-AFAA-D3C0C5B4BF52}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17664" xr2:uid="{9DC2398A-BE11-4B53-AFAA-D3C0C5B4BF52}"/>
   </bookViews>
   <sheets>
     <sheet name="data_Dictionary" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t>contaminents</t>
   </si>
   <si>
-    <t>Amount recycled in tons for the given year in each city (cumulative residential totals).</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
@@ -198,18 +195,12 @@
     <t>Total tonnage of paper recycled (from city data); different paper types added into single value.</t>
   </si>
   <si>
-    <t>Total tonnage of contaminated material (from city data); usually means hazardous waste.</t>
-  </si>
-  <si>
     <t>Population of city measured in individual residents (US Census data).</t>
   </si>
   <si>
     <t>Area of each city measured in square miles (US Census data).</t>
   </si>
   <si>
-    <t>2014, 2016</t>
-  </si>
-  <si>
     <t>Cost per ton of material recycled</t>
   </si>
   <si>
@@ -226,6 +217,15 @@
   </si>
   <si>
     <t>Name of city/municipality for relevant recycle data.</t>
+  </si>
+  <si>
+    <t>Four digit calendar year (ex: 2014, 2016)</t>
+  </si>
+  <si>
+    <t>Total tonnage of contaminated material (from city data); usually refers to hazardous waste.</t>
+  </si>
+  <si>
+    <t>Amount recycled in tons for the given year in each city (cumulative residential totals; hand calculated for Portland and Los Angeles).</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,7 +639,7 @@
     <col min="2" max="2" width="18.109375" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="49.44140625" customWidth="1"/>
     <col min="7" max="7" width="12" style="8" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" style="8" customWidth="1"/>
@@ -647,12 +647,12 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -675,10 +675,10 @@
         <v>5</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -692,22 +692,22 @@
         <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -720,22 +720,22 @@
       <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>57</v>
+      <c r="E6" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -747,21 +747,21 @@
         <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
@@ -773,21 +773,21 @@
         <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
@@ -799,21 +799,21 @@
         <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
@@ -825,21 +825,21 @@
         <v>17</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>28</v>
@@ -851,19 +851,19 @@
         <v>17</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
@@ -877,19 +877,19 @@
         <v>17</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -903,21 +903,21 @@
         <v>17</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -926,22 +926,22 @@
         <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -952,19 +952,19 @@
         <v>16</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -981,19 +981,19 @@
         <v>17</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
@@ -1004,19 +1004,19 @@
         <v>16</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/municipalRecycling_Data_Dictionary.xlsx
+++ b/municipalRecycling_Data_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee6b5e37b1485b62/UW MLIS/LIS 545/ASSIGNMENTS/Curation Protocol/recyclingProgram/municipal_recycling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="8_{F31FE84C-E0A5-423E-B344-F65A110A6D6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BEFDE93F-5B61-4329-A1A7-B392EB442652}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="8_{F31FE84C-E0A5-423E-B344-F65A110A6D6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D7850626-B87A-4B46-8F59-ECC1E004E423}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17664" xr2:uid="{9DC2398A-BE11-4B53-AFAA-D3C0C5B4BF52}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>recycle_Rate</t>
   </si>
   <si>
-    <t>City Recycling Program</t>
-  </si>
-  <si>
     <t>Population of City</t>
   </si>
   <si>
@@ -195,18 +192,9 @@
     <t>Total tonnage of paper recycled (from city data); different paper types added into single value.</t>
   </si>
   <si>
-    <t>Population of city measured in individual residents (US Census data).</t>
-  </si>
-  <si>
-    <t>Area of each city measured in square miles (US Census data).</t>
-  </si>
-  <si>
     <t>Cost per ton of material recycled</t>
   </si>
   <si>
-    <t>Total percentage of residential (includes single-family and multi-family) recycled materials that were recovered or diverted from a landfill. The numbers for Seattle were pulled direclty from report; Portland and Los Angeles had to be calculated by hand from available data.</t>
-  </si>
-  <si>
     <t>Municipal Recycling Program Comparison: Data Dictionary</t>
   </si>
   <si>
@@ -226,6 +214,18 @@
   </si>
   <si>
     <t>Amount recycled in tons for the given year in each city (cumulative residential totals; hand calculated for Portland and Los Angeles).</t>
+  </si>
+  <si>
+    <t>Municipal Recycling Program</t>
+  </si>
+  <si>
+    <t>Total percentage of residential (includes single-family and multifamily) recycled materials that were recovered or diverted from a landfill. The numbers for Seattle were pulled direclty from report; Portland and Los Angeles had to be calculated by hand from available data.</t>
+  </si>
+  <si>
+    <t>Population of city measured in individual residents (US Census Bureau data).</t>
+  </si>
+  <si>
+    <t>Area of each city measured in square miles (US Census Bureau data).</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,12 +647,12 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -675,15 +675,15 @@
         <v>5</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
@@ -692,24 +692,24 @@
         <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
@@ -721,21 +721,21 @@
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -747,21 +747,21 @@
         <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
@@ -773,21 +773,21 @@
         <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
@@ -799,21 +799,21 @@
         <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
@@ -825,24 +825,24 @@
         <v>17</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>16</v>
@@ -851,24 +851,24 @@
         <v>17</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>16</v>
@@ -877,16 +877,16 @@
         <v>17</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -903,47 +903,47 @@
         <v>17</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>19</v>
@@ -952,24 +952,24 @@
         <v>16</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -981,21 +981,21 @@
         <v>17</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>14</v>
@@ -1004,19 +1004,19 @@
         <v>16</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
